--- a/Data/dividend-q1.xlsx
+++ b/Data/dividend-q1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>JASIF</t>
+  </si>
+  <si>
+    <t>TFFIF</t>
   </si>
   <si>
     <t>WHAIR</t>
@@ -426,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,7 +484,7 @@
         <v>13338</v>
       </c>
       <c r="F2" s="2">
-        <v>45071</v>
+        <v>45069</v>
       </c>
       <c r="G2" s="2">
         <v>45085</v>
@@ -609,7 +612,7 @@
         <v>26910</v>
       </c>
       <c r="F6" s="2">
-        <v>45069</v>
+        <v>45065</v>
       </c>
       <c r="G6" s="2">
         <v>45084</v>
@@ -629,31 +632,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.1556</v>
+        <v>0.1032</v>
       </c>
       <c r="C7">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D7">
-        <v>7780</v>
+        <v>2064</v>
       </c>
       <c r="E7">
-        <v>7002</v>
+        <v>1857.6</v>
       </c>
       <c r="F7" s="2">
-        <v>44995</v>
+        <v>45077</v>
       </c>
       <c r="G7" s="2">
-        <v>45015</v>
+        <v>45096</v>
       </c>
       <c r="H7">
-        <v>435000</v>
+        <v>153000</v>
       </c>
       <c r="I7">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -661,31 +664,63 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.1369</v>
+      </c>
+      <c r="C8">
+        <v>50000</v>
+      </c>
+      <c r="D8">
+        <v>6845</v>
+      </c>
+      <c r="E8">
+        <v>6160.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45068</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45099</v>
+      </c>
+      <c r="H8">
+        <v>435000</v>
+      </c>
+      <c r="I8">
+        <v>1.42</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>0.1915</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>30000</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>5745</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>5170.5</v>
       </c>
-      <c r="F8" s="2">
-        <v>44993</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45009</v>
-      </c>
-      <c r="H8">
+      <c r="F9" s="2">
+        <v>45069</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45086</v>
+      </c>
+      <c r="H9">
         <v>351000</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>1.47</v>
       </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/dividend-q1.xlsx
+++ b/Data/dividend-q1.xlsx
@@ -1,102 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>qtrly</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>xdate</t>
-  </si>
-  <si>
-    <t>paiddate</t>
-  </si>
-  <si>
-    <t>cost_amt</t>
-  </si>
-  <si>
-    <t>pct</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>CPNREIT</t>
-  </si>
-  <si>
-    <t>DIF</t>
-  </si>
-  <si>
-    <t>GVREIT</t>
-  </si>
-  <si>
-    <t>IVL</t>
-  </si>
-  <si>
-    <t>JASIF</t>
-  </si>
-  <si>
-    <t>TFFIF</t>
-  </si>
-  <si>
-    <t>WHAIR</t>
-  </si>
-  <si>
-    <t>WHART</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -428,302 +424,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>qtrly</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>net</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>xdate</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>paiddate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cost_amt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AIMIRT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2867</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2867</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2580.3</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="H2" t="n">
+        <v>110000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>0.247</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CPNREIT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3618</v>
+      </c>
+      <c r="C3" t="n">
         <v>60000</v>
       </c>
-      <c r="D2">
-        <v>14820</v>
-      </c>
-      <c r="E2">
-        <v>13338</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45069</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45085</v>
-      </c>
-      <c r="H2">
+      <c r="D3" t="n">
+        <v>21708</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19537.2</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="H3" t="n">
         <v>1053000</v>
       </c>
-      <c r="I2">
-        <v>1.27</v>
-      </c>
-      <c r="J2">
+      <c r="I3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.245</v>
-      </c>
-      <c r="C3">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DIF</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="C4" t="n">
         <v>30000</v>
       </c>
-      <c r="D3">
-        <v>7350</v>
-      </c>
-      <c r="E3">
-        <v>6615</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45061</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45084</v>
-      </c>
-      <c r="H3">
+      <c r="D4" t="n">
+        <v>6666</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5999.4</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="H4" t="n">
         <v>441000</v>
       </c>
-      <c r="I3">
-        <v>1.5</v>
-      </c>
-      <c r="J3">
+      <c r="I4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GVREIT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.1915</v>
       </c>
-      <c r="C4">
-        <v>30000</v>
-      </c>
-      <c r="D4">
-        <v>5745</v>
-      </c>
-      <c r="E4">
-        <v>5170.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44984</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44995</v>
-      </c>
-      <c r="H4">
-        <v>267000</v>
-      </c>
-      <c r="I4">
-        <v>1.94</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.4</v>
-      </c>
-      <c r="C5">
+      <c r="C5" t="n">
+        <v>66000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12639</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11375.1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>511500</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IVL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C6" t="n">
         <v>7200</v>
       </c>
-      <c r="D5">
-        <v>2880</v>
-      </c>
-      <c r="E5">
-        <v>2592</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45049</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45065</v>
-      </c>
-      <c r="H5">
+      <c r="D6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1134</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="H6" t="n">
         <v>288000</v>
       </c>
-      <c r="I5">
-        <v>0.9</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.23</v>
-      </c>
-      <c r="C6">
-        <v>130000</v>
-      </c>
-      <c r="D6">
-        <v>29900</v>
-      </c>
-      <c r="E6">
-        <v>26910</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45065</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45084</v>
-      </c>
-      <c r="H6">
-        <v>1300000</v>
-      </c>
-      <c r="I6">
-        <v>2.07</v>
-      </c>
-      <c r="J6">
+      <c r="I6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TFFIF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.1032</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>20000</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>2064</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1857.6</v>
       </c>
-      <c r="F7" s="2">
-        <v>45077</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45096</v>
-      </c>
-      <c r="H7">
-        <v>153000</v>
-      </c>
-      <c r="I7">
-        <v>1.21</v>
-      </c>
-      <c r="J7">
+      <c r="F7" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="H7" t="n">
+        <v>150000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WHAIR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0.1369</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>50000</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>6845</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="F8" s="2">
-        <v>45068</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45099</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="H8" t="n">
         <v>435000</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>1.42</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WHART</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>0.1915</v>
       </c>
-      <c r="C9">
-        <v>30000</v>
-      </c>
-      <c r="D9">
-        <v>5745</v>
-      </c>
-      <c r="E9">
-        <v>5170.5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45069</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45086</v>
-      </c>
-      <c r="H9">
-        <v>351000</v>
-      </c>
-      <c r="I9">
-        <v>1.47</v>
-      </c>
-      <c r="J9">
+      <c r="C9" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4787.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4308.75</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="H9" t="n">
+        <v>290000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>